--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/텍스트가입력된셀만선택(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/텍스트가입력된셀만선택(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section01\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1EC5C-C43B-4FB7-898A-062682FEC618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF88224-C5FD-9340-8C1C-B2A838F51E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="8110" xr2:uid="{4CC26A88-FA79-4B8F-88C0-1B6E2C03F790}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{4CC26A88-FA79-4B8F-88C0-1B6E2C03F790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,31 +510,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,20 +853,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D8777A-2D4B-49C2-9980-2CCBFB1EA7D0}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="4" customWidth="1"/>
     <col min="3" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="14.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="24.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +877,8 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="2:8" ht="11.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="11.5" customHeight="1"/>
+    <row r="3" spans="2:8">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8">
       <c r="B5" s="11">
         <v>2</v>
       </c>
@@ -947,7 +947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -970,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8">
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8">
       <c r="B9" s="11">
         <v>6</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8">
       <c r="B10" s="11">
         <v>7</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8">
       <c r="B11" s="11">
         <v>8</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8">
       <c r="B12" s="11">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8">
       <c r="B13" s="11">
         <v>10</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8">
       <c r="B14" s="11">
         <v>11</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8">
       <c r="B15" s="11">
         <v>12</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8">
       <c r="B16" s="11">
         <v>13</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8">
       <c r="B17" s="11">
         <v>14</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8">
       <c r="B18" s="11">
         <v>15</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8">
       <c r="B19" s="11">
         <v>16</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8">
       <c r="B20" s="11">
         <v>17</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8">
       <c r="B21" s="11">
         <v>18</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:8" ht="18" thickBot="1">
       <c r="B22" s="14">
         <v>19</v>
       </c>
